--- a/API-mail-file.xlsx
+++ b/API-mail-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Python_code_mine\Focus_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F36590-CECC-453C-9EEE-3B4B057DFE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE30F16-3A72-4884-9A23-2B0BA5D72E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEAE0084-ECC2-4FE7-A441-0F6881D87507}"/>
+    <workbookView xWindow="735" yWindow="1815" windowWidth="13650" windowHeight="11385" xr2:uid="{AEAE0084-ECC2-4FE7-A441-0F6881D87507}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E142F2-C454-4A06-B8DC-473BC162779C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,6 +577,21 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
